--- a/tarbalhoindividual2_Snseg.xlsx
+++ b/tarbalhoindividual2_Snseg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3668822024.1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1F4334A-6C04-46C5-B127-305D483A8EFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283723A8-A5F9-4367-BA32-995673D9AA23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{E9DBA3E8-790C-4DAD-A6BF-1B15B6B02C62}"/>
   </bookViews>
@@ -322,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -338,15 +338,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,177 +681,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0C71C0-F032-49F7-8152-2DAE8375F1C7}">
-  <dimension ref="A2:P11"/>
+  <dimension ref="A2:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="M3" s="4" t="s">
+      <c r="K3" s="5"/>
+      <c r="L3" s="6"/>
+      <c r="N3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="6"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="1"/>
+      <c r="J4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="K4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="L4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="14">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="15">
         <v>2</v>
       </c>
-      <c r="D5" s="12">
+      <c r="E5" s="16">
         <v>20</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2">
+      <c r="F5" s="1"/>
+      <c r="G5" s="2">
         <v>10</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="2">
+      <c r="I5" s="1"/>
+      <c r="J5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>2</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="8">
+      <c r="P5" s="8">
         <v>2</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="17">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="14">
+      <c r="D6" s="18">
         <v>1</v>
       </c>
-      <c r="D6" s="15">
+      <c r="E6" s="19">
         <v>10</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2">
+      <c r="F6" s="1"/>
+      <c r="G6" s="2">
         <v>20</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="2">
+      <c r="I6" s="1"/>
+      <c r="J6" s="2">
         <v>2</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>1</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="8">
+      <c r="P6" s="8">
         <v>1</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -839,17 +859,18 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="2">
+      <c r="I7" s="1"/>
+      <c r="J7" s="2">
         <v>3</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -860,7 +881,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -871,7 +892,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -882,7 +903,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -891,10 +912,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
